--- a/biology/Zoologie/Idea_iasonia/Idea_iasonia.xlsx
+++ b/biology/Zoologie/Idea_iasonia/Idea_iasonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Idea iasonia est une espèce de papillons de la famille des Nymphalidae, de la sous-famille des Danainae et du genre Idea.
 </t>
@@ -511,11 +523,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Idea iasonia a été décrit par John Obadiah Westwood en 1843 sous le nom initial de Hestia iasonia[1].
-Nom vernaculaire
-Idea iasonia se nomme Ceylon Tree-nymph en anglais.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Idea iasonia a été décrit par John Obadiah Westwood en 1843 sous le nom initial de Hestia iasonia.
 </t>
         </is>
       </c>
@@ -541,12 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxinomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Idea iasonia est un grand papillon d'une envergure de 110 mm à 155 mmblanc veiné et orné de noir avec une ligne marginale de points noirs[2].
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Idea iasonia se nomme Ceylon Tree-nymph en anglais.
 </t>
         </is>
       </c>
@@ -572,13 +590,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Aganosma[1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Idea iasonia est un grand papillon d'une envergure de 110 mm à 155 mmblanc veiné et orné de noir avec une ligne marginale de points noirs.
 </t>
         </is>
       </c>
@@ -604,16 +623,125 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Aganosma.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Idea_iasonia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Idea_iasonia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Idea iasonia est présent dans le sud de l'Inde, au Sri Lanka et en Malaisie[1].
-Biotope
-Idea iasonia réside dans la canopée de la forêt humide ou en zone plus sèche en bordure de rivières[2].
-Protection
-Il est listé NT[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Idea iasonia est présent dans le sud de l'Inde, au Sri Lanka et en Malaisie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Idea_iasonia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Idea_iasonia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Idea iasonia réside dans la canopée de la forêt humide ou en zone plus sèche en bordure de rivières.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Idea_iasonia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Idea_iasonia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est listé NT.
 </t>
         </is>
       </c>
